--- a/資料/Kitchen_Timer_仕様書v0.2.xlsx
+++ b/資料/Kitchen_Timer_仕様書v0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB9AB61-8803-4502-B6D2-13D39E3DB26E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E2242D-5FB8-4608-8819-13455507A642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="105">
   <si>
     <t>カウントダウンのスタート・ストップ</t>
     <phoneticPr fontId="1"/>
@@ -141,19 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・任意にカウントする時間をボタンで設定できる</t>
-    <rPh sb="1" eb="3">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カウント時間の表示</t>
     <rPh sb="4" eb="6">
       <t>ジカン</t>
@@ -666,22 +653,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・カウントダウン中でもボタンを押すことで、増加可能</t>
-    <rPh sb="8" eb="9">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ゾウカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>例：5分を設定する場合</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
@@ -698,19 +669,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>分ボタンを5回押す</t>
-    <rPh sb="0" eb="1">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スタートストップボタンを押す</t>
     <rPh sb="12" eb="13">
       <t>オ</t>
@@ -902,6 +860,239 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ボタンで任意にカウントする時間を設定できる</t>
+    <rPh sb="5" eb="7">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・カウントダウンが停止している時のみ設定可能</t>
+    <rPh sb="9" eb="11">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：分ボタンを5回押す</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント時間設定</t>
+    <rPh sb="4" eb="8">
+      <t>ジカンセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントする時間を分ボタン、秒ボタンで設定できる。</t>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各画面の説明</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定した時間までカウントダウンをする。</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウン中は、mとsが点滅する。</t>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートストップボタンを押すと、「カウントダウン中」へ遷移する。</t>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00m00sになると、「カウントダウン 終了」へ遷移する。</t>
+    <rPh sb="20" eb="22">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00m00sでないときに、スタートストップボタンを押すと、</t>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「カウントダウン 一時停止」へ遷移する。</t>
+    <rPh sb="9" eb="11">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウン 一時停止</t>
+    <rPh sb="8" eb="10">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウンが一時停止する。</t>
+    <rPh sb="8" eb="10">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分ボタンと秒ボタンが同時に押されると、</t>
+    <rPh sb="0" eb="1">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「リセット動作」を行う。</t>
+    <rPh sb="5" eb="7">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブザー音が一定時間鳴り、</t>
+    <rPh sb="3" eb="4">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「カウント時間設定」へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセット動作</t>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント時間を00m00sにする。</t>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1114,12 +1305,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,6 +1328,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1606,8 +1797,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1017270" y="7456171"/>
-          <a:ext cx="469887" cy="440054"/>
+          <a:off x="1009650" y="7227571"/>
+          <a:ext cx="469887" cy="424814"/>
           <a:chOff x="887730" y="5093971"/>
           <a:chExt cx="548640" cy="519841"/>
         </a:xfrm>
@@ -1729,8 +1920,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2767965" y="7450456"/>
-          <a:ext cx="471792" cy="434339"/>
+          <a:off x="2758440" y="7219951"/>
+          <a:ext cx="471792" cy="419099"/>
           <a:chOff x="887730" y="5093971"/>
           <a:chExt cx="548640" cy="519841"/>
         </a:xfrm>
@@ -1852,8 +2043,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1952625" y="7459981"/>
-          <a:ext cx="466077" cy="438149"/>
+          <a:off x="1943100" y="7231381"/>
+          <a:ext cx="467982" cy="422909"/>
           <a:chOff x="887730" y="5093971"/>
           <a:chExt cx="548640" cy="519841"/>
         </a:xfrm>
@@ -2304,8 +2495,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10992916" y="6584775"/>
-          <a:ext cx="897479" cy="1194470"/>
+          <a:off x="10999024" y="6519164"/>
+          <a:ext cx="881454" cy="1198280"/>
           <a:chOff x="8690722" y="7754949"/>
           <a:chExt cx="918434" cy="1235483"/>
         </a:xfrm>
@@ -3462,8 +3653,8 @@
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>215153</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>53789</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>116543</xdr:rowOff>
     </xdr:to>
@@ -3480,8 +3671,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7716707" y="3021107"/>
-          <a:ext cx="3480211" cy="2438401"/>
+          <a:off x="7716707" y="3003177"/>
+          <a:ext cx="3632611" cy="2402542"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3762,21 +3953,21 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
             <a:t>PIC</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
             <a:t>マイコン</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
             <a:t>PIC16F1827</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3836,7 +4027,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
             <a:t>押しボタン１</a:t>
           </a:r>
         </a:p>
@@ -3898,7 +4089,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
             <a:t>押しボタン２</a:t>
           </a:r>
         </a:p>
@@ -3960,7 +4151,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
             <a:t>押しボタン３</a:t>
           </a:r>
         </a:p>
@@ -4022,18 +4213,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
             <a:t>ＬＣＤ</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
             <a:t>AE-AQM0802</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4494,7 +4685,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
             <a:t>ブザー</a:t>
           </a:r>
         </a:p>
@@ -4566,8 +4757,8 @@
       <xdr:rowOff>217714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>273231</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>436517</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>66388</xdr:rowOff>
     </xdr:to>
@@ -5038,98 +5229,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646F19A9-3ADB-45C4-BB57-217CF39D9DEB}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="26" width="4.125" customWidth="1"/>
+    <col min="1" max="1" width="7.69921875" customWidth="1"/>
+    <col min="2" max="26" width="4.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -5139,10 +5330,10 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="L25" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C26" s="6"/>
       <c r="D26" s="7">
         <v>0</v>
@@ -5164,119 +5355,119 @@
       </c>
       <c r="J26" s="6"/>
       <c r="L26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L27" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L32" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L27" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" s="5" t="s">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C37" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B31" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L32" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C37" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C40" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C43" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B46" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B53" s="9" t="s">
         <v>15</v>
       </c>
@@ -5284,77 +5475,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B54" s="2"/>
       <c r="C54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B55" s="2"/>
       <c r="C55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B57" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B59" s="2"/>
       <c r="C59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B60" s="2"/>
       <c r="C60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B61" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B62" s="2"/>
       <c r="C62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B63" s="2"/>
       <c r="C63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B64" s="2"/>
       <c r="C64" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B65" s="9" t="s">
         <v>17</v>
       </c>
@@ -5362,13 +5553,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B66" s="2"/>
       <c r="C66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B67" s="9" t="s">
         <v>18</v>
       </c>
@@ -5376,14 +5567,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C68" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5396,398 +5587,467 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0E333-9386-4B56-8322-B1787B4368DB}">
-  <dimension ref="L4:DI40"/>
+  <dimension ref="A4:DI40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ5" sqref="AQ5"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="118" width="4.125" customWidth="1"/>
+    <col min="1" max="118" width="4.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="14:113" ht="39.75" x14ac:dyDescent="0.4">
-      <c r="N4" s="21" t="s">
+    <row r="4" spans="1:113" ht="39" x14ac:dyDescent="0.45">
+      <c r="N4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:113" ht="39" x14ac:dyDescent="0.45">
+      <c r="N5" s="20"/>
+      <c r="O5" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:113" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:113" x14ac:dyDescent="0.45">
+      <c r="B8" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:113" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:113" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:113" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>76</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>63</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>64</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:113" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="14"/>
+      <c r="CF13" s="13"/>
+      <c r="CG13" s="14"/>
+      <c r="CH13" s="15"/>
+      <c r="CI13" s="14"/>
+      <c r="CJ13" s="15"/>
+      <c r="CK13" s="14"/>
+      <c r="CL13" s="15"/>
+      <c r="CM13" s="14"/>
+      <c r="CQ13" s="13"/>
+      <c r="CR13" s="14"/>
+      <c r="CS13" s="15"/>
+      <c r="CT13" s="14"/>
+      <c r="CU13" s="15"/>
+      <c r="CV13" s="14"/>
+      <c r="CW13" s="15"/>
+      <c r="CX13" s="14"/>
+      <c r="DB13" s="13"/>
+      <c r="DC13" s="14"/>
+      <c r="DD13" s="15"/>
+      <c r="DE13" s="14"/>
+      <c r="DF13" s="15"/>
+      <c r="DG13" s="14"/>
+      <c r="DH13" s="15"/>
+      <c r="DI13" s="14"/>
+    </row>
+    <row r="14" spans="1:113" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG14" s="17"/>
+      <c r="CF14" s="16"/>
+      <c r="CG14" s="17">
+        <v>0</v>
+      </c>
+      <c r="CH14" s="18">
+        <v>0</v>
+      </c>
+      <c r="CI14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ14" s="18">
+        <v>0</v>
+      </c>
+      <c r="CK14" s="17">
+        <v>0</v>
+      </c>
+      <c r="CL14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="CM14" s="17"/>
+      <c r="CQ14" s="16"/>
+      <c r="CR14" s="17">
+        <v>1</v>
+      </c>
+      <c r="CS14" s="18">
+        <v>2</v>
+      </c>
+      <c r="CT14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="CU14" s="18">
+        <v>3</v>
+      </c>
+      <c r="CV14" s="17">
+        <v>4</v>
+      </c>
+      <c r="CW14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="CX14" s="17"/>
+      <c r="DB14" s="16"/>
+      <c r="DC14" s="17">
+        <v>1</v>
+      </c>
+      <c r="DD14" s="18">
+        <v>2</v>
+      </c>
+      <c r="DE14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="DF14" s="18">
+        <v>3</v>
+      </c>
+      <c r="DG14" s="17">
+        <v>3</v>
+      </c>
+      <c r="DH14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="DI14" s="17"/>
+    </row>
+    <row r="15" spans="1:113" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:113" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF16" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="22"/>
-    </row>
-    <row r="5" spans="14:113" ht="39.75" x14ac:dyDescent="0.4">
-      <c r="N5" s="22"/>
-      <c r="O5" s="22" t="s">
+      <c r="AN16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:89" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:89" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="14"/>
+      <c r="CK19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:89" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="18">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG20" s="17"/>
+    </row>
+    <row r="21" spans="2:89" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:89" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:89" x14ac:dyDescent="0.45">
+      <c r="AF23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:89" x14ac:dyDescent="0.45">
+      <c r="B24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:89" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="U25" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO25" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:89" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L27" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="14:113" x14ac:dyDescent="0.4">
-      <c r="AD6" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="14:113" x14ac:dyDescent="0.4">
-      <c r="Z10" s="10" t="s">
+    <row r="28" spans="2:89" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="14"/>
+      <c r="Z28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="14:113" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Z12" t="s">
-        <v>79</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>66</v>
-      </c>
-      <c r="CQ12" t="s">
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="15"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="15"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="15"/>
+      <c r="AV28" s="14"/>
+    </row>
+    <row r="29" spans="2:89" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="16"/>
+      <c r="M29" s="17">
+        <v>0</v>
+      </c>
+      <c r="N29" s="18">
+        <v>3</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>1</v>
+      </c>
+      <c r="R29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" s="17"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="14"/>
+      <c r="AO29" s="16"/>
+      <c r="AP29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS29" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV29" s="17"/>
+    </row>
+    <row r="30" spans="2:89" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U30" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="18">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD30" s="18">
+        <v>5</v>
+      </c>
+      <c r="AE30" s="17">
+        <v>9</v>
+      </c>
+      <c r="AF30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG30" s="17"/>
+    </row>
+    <row r="31" spans="2:89" x14ac:dyDescent="0.45">
+      <c r="U31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="26:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Z35" t="s">
         <v>67</v>
       </c>
-      <c r="DB12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="14:113" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="16"/>
-      <c r="CF13" s="15"/>
-      <c r="CG13" s="16"/>
-      <c r="CH13" s="17"/>
-      <c r="CI13" s="16"/>
-      <c r="CJ13" s="17"/>
-      <c r="CK13" s="16"/>
-      <c r="CL13" s="17"/>
-      <c r="CM13" s="16"/>
-      <c r="CQ13" s="15"/>
-      <c r="CR13" s="16"/>
-      <c r="CS13" s="17"/>
-      <c r="CT13" s="16"/>
-      <c r="CU13" s="17"/>
-      <c r="CV13" s="16"/>
-      <c r="CW13" s="17"/>
-      <c r="CX13" s="16"/>
-      <c r="DB13" s="15"/>
-      <c r="DC13" s="16"/>
-      <c r="DD13" s="17"/>
-      <c r="DE13" s="16"/>
-      <c r="DF13" s="17"/>
-      <c r="DG13" s="16"/>
-      <c r="DH13" s="17"/>
-      <c r="DI13" s="16"/>
-    </row>
-    <row r="14" spans="14:113" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="19">
+    </row>
+    <row r="36" spans="26:33" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="14"/>
+    </row>
+    <row r="37" spans="26:33" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="17">
         <v>0</v>
       </c>
-      <c r="AB14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG14" s="19"/>
-      <c r="CF14" s="18"/>
-      <c r="CG14" s="19">
-        <v>0</v>
-      </c>
-      <c r="CH14" s="20">
-        <v>0</v>
-      </c>
-      <c r="CI14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="CJ14" s="20">
-        <v>0</v>
-      </c>
-      <c r="CK14" s="19">
-        <v>0</v>
-      </c>
-      <c r="CL14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="CM14" s="19"/>
-      <c r="CQ14" s="18"/>
-      <c r="CR14" s="19">
-        <v>1</v>
-      </c>
-      <c r="CS14" s="20">
-        <v>2</v>
-      </c>
-      <c r="CT14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="CU14" s="20">
-        <v>3</v>
-      </c>
-      <c r="CV14" s="19">
+      <c r="AB37" s="18">
         <v>4</v>
       </c>
-      <c r="CW14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="CX14" s="19"/>
-      <c r="DB14" s="18"/>
-      <c r="DC14" s="19">
-        <v>1</v>
-      </c>
-      <c r="DD14" s="20">
-        <v>2</v>
-      </c>
-      <c r="DE14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="DF14" s="20">
-        <v>3</v>
-      </c>
-      <c r="DG14" s="19">
-        <v>3</v>
-      </c>
-      <c r="DH14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="DI14" s="19"/>
-    </row>
-    <row r="16" spans="14:113" x14ac:dyDescent="0.4">
-      <c r="AF16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="12:89" x14ac:dyDescent="0.4">
-      <c r="Q17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="12:89" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Q18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="12:89" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Q19" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="16"/>
-      <c r="CK19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="12:89" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="20">
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="18">
         <v>5</v>
       </c>
-      <c r="AC20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD20" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG20" s="19"/>
-    </row>
-    <row r="23" spans="12:89" x14ac:dyDescent="0.4">
-      <c r="AF23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="12:89" x14ac:dyDescent="0.4">
-      <c r="U24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="12:89" x14ac:dyDescent="0.4">
-      <c r="L25" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="U25" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z25" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO25" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="12:89" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L27" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="12:89" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L28" s="15"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="16"/>
-      <c r="Z28" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO28" s="15"/>
-      <c r="AP28" s="16"/>
-      <c r="AQ28" s="17"/>
-      <c r="AR28" s="16"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="16"/>
-      <c r="AU28" s="17"/>
-      <c r="AV28" s="16"/>
-    </row>
-    <row r="29" spans="12:89" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L29" s="18"/>
-      <c r="M29" s="19">
-        <v>0</v>
-      </c>
-      <c r="N29" s="20">
-        <v>3</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P29" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="19">
-        <v>1</v>
-      </c>
-      <c r="R29" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S29" s="19"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="16"/>
-      <c r="AO29" s="18"/>
-      <c r="AP29" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR29" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS29" s="20">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="19">
-        <v>0</v>
-      </c>
-      <c r="AU29" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV29" s="19"/>
-    </row>
-    <row r="30" spans="12:89" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="U30" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="20">
-        <v>4</v>
-      </c>
-      <c r="AC30" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD30" s="20">
-        <v>5</v>
-      </c>
-      <c r="AE30" s="19">
+      <c r="AE37" s="17">
         <v>9</v>
       </c>
-      <c r="AF30" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG30" s="19"/>
-    </row>
-    <row r="31" spans="12:89" x14ac:dyDescent="0.4">
-      <c r="U31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="26:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Z35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="26:33" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="17"/>
-      <c r="AG36" s="16"/>
-    </row>
-    <row r="37" spans="26:33" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="20">
-        <v>4</v>
-      </c>
-      <c r="AC37" s="19"/>
-      <c r="AD37" s="20">
-        <v>5</v>
-      </c>
-      <c r="AE37" s="19">
-        <v>9</v>
-      </c>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="19"/>
-    </row>
-    <row r="40" spans="26:33" x14ac:dyDescent="0.4">
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="17"/>
+    </row>
+    <row r="40" spans="26:33" x14ac:dyDescent="0.45">
       <c r="Z40" s="10"/>
     </row>
   </sheetData>
@@ -5801,29 +6061,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC2ED8A-E6AC-4214-970A-3292B5B327A3}">
   <dimension ref="C7:D15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="3:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="3:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="C7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="11" spans="3:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C11" s="13" t="s">
+      <c r="D7" s="21"/>
+    </row>
+    <row r="11" spans="3:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="C11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="15" spans="3:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="14" t="s">
+      <c r="D11" s="21"/>
+    </row>
+    <row r="15" spans="3:4" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
